--- a/03.crawler/01.RockAuto/file/1.part_number/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/1.part_number/crawler_1.xlsx
@@ -1896,12 +1896,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>31049SAWVVT1</t>
+          <t>31049SB</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SAWVVT1,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>31049SB</t>
+          <t>31049SBH</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SBH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>31049SBH</t>
+          <t>31049SBX</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SBH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SBX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>31049SBX</t>
+          <t>31049SBXH</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SBX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SBXH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>31049SBXH</t>
+          <t>31049SC</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SBXH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SC,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>31049SC</t>
+          <t>31049SCH</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SC,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SCH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>31049SCH</t>
+          <t>31049SCX</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SCH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SCX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>31049SCX</t>
+          <t>31049SCXH</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SCX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SCXH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>31049SCXH</t>
+          <t>31049SD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SCXH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SD,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>31049SD</t>
+          <t>31049SDH</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SD,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SDH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2246,12 +2246,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>31049SDH</t>
+          <t>31049SDX</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SDH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SDX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>31049SDX</t>
+          <t>31049SDXH</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SDX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SDXH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2316,12 +2316,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>31049SDXH</t>
+          <t>31049SE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SDXH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SE,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2351,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>31049SE</t>
+          <t>31049SEH</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SE,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SEH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>31049SEH</t>
+          <t>31049SEK3</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SEH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SEK3,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>31049SEK3</t>
+          <t>31049SEVVT</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SEK3,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SEVVT,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>31049SEVVT</t>
+          <t>31049SF</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SEVVT,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SF,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31049SF</t>
+          <t>31049SFH</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SF,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SFH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>31049SFH</t>
+          <t>31049SFVVT</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SFH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SFVVT,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>31049SFVVT</t>
+          <t>31049SG</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SFVVT,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SG,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>31049SG</t>
+          <t>31049SGX</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SG,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SGX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>31049SGX</t>
+          <t>31049SH</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SGX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SH,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31049SH</t>
+          <t>31049SJ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SH,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SJ,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>31049SJ</t>
+          <t>31049SK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SJ,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SK,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>31049SK</t>
+          <t>31049SL</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SK,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SL,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2771,12 +2771,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>31049SL</t>
+          <t>31049SM</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SL,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SM,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>31049SM</t>
+          <t>31049SN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SM,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SN,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>31049SN</t>
+          <t>31049SP</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SN,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SP,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>31049SP</t>
+          <t>31049SPVVT</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SP,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SPVVT,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>31049SPVVT</t>
+          <t>31049SVVT1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SPVVT,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SVVT1,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>31049SVVT1</t>
+          <t>31049SVVT2</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SVVT1,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SVVT2,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>31049SVVT2</t>
+          <t>31049SW</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SVVT2,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31049SW,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>31049SW</t>
+          <t>31051S</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31049SW,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31051S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3051,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>31051S</t>
+          <t>31051SA</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31051S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31051SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>31051SA</t>
+          <t>31051SAX</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31051SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31051SAX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>31051SAX</t>
+          <t>31051SX</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31051SAX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31051SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3156,12 +3156,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>31051SX</t>
+          <t>31054S</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31051SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31054S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>31054S</t>
+          <t>31055S</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31054S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31055S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>31055S</t>
+          <t>31055SX</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31055S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31055SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>31055SX</t>
+          <t>31056S</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31055SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31056S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3296,12 +3296,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>31056S</t>
+          <t>31056SX</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31056S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31056SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>31056SX</t>
+          <t>31058S</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31056SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31058S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>31058S</t>
+          <t>31058SX</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31058S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31058SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>31058SX</t>
+          <t>31060S</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31058SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31060S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>31060S</t>
+          <t>31062S</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31060S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31062S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3471,12 +3471,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>31062S</t>
+          <t>31062SX</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31062S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31062SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>31062SX</t>
+          <t>31064S</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31062SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31064S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>31064S</t>
+          <t>31065S</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31064S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31065S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3576,12 +3576,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>31065S</t>
+          <t>31065SX</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31065S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31065SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>31065SX</t>
+          <t>31067S</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31065SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31067S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>31067S</t>
+          <t>31067SX</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31067S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31067SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>31067SX</t>
+          <t>31069SAX</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31067SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31069SAX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>31069SAX</t>
+          <t>31069SX</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31069SAX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31069SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>31069SX</t>
+          <t>31073S</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31069SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31073S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>31073S</t>
+          <t>31073SX</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31073S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31073SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>31073SX</t>
+          <t>31075SX</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31073SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31075SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>31075SX</t>
+          <t>31076S</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31075SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31076S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>31076S</t>
+          <t>31076SA</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31076S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31076SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>31076SA</t>
+          <t>31076SAX</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31076SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31076SAX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>31076SAX</t>
+          <t>31076SX</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31076SAX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31076SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>31076SX</t>
+          <t>31078S</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31076SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31078S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>31078S</t>
+          <t>31079S</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31078S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31079S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>31079S</t>
+          <t>31079SX</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31079S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31079SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>31079SX</t>
+          <t>31080S</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31079SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31080S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4136,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>31080S</t>
+          <t>31080SX</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31080S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31080SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>31080SX</t>
+          <t>31081S</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31080SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31081S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>31081S</t>
+          <t>31082S</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31081S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31082S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>31082S</t>
+          <t>31082SX</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31082S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31082SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>31082SX</t>
+          <t>31083S</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31082SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31083S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4311,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>31083S</t>
+          <t>31083SX</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31083S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31083SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4346,12 +4346,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>31083SX</t>
+          <t>31085SX</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31083SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31085SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>31085SX</t>
+          <t>31087SX</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31085SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31087SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4416,12 +4416,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>31087SX</t>
+          <t>31090S</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31087SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31090S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>31090S</t>
+          <t>31090SAX</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31090S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31090SAX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>31090SAX</t>
+          <t>31090SX</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31090SAX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31090SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>31090SX</t>
+          <t>31093S</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31090SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31093S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4556,12 +4556,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>31093S</t>
+          <t>31093SA</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31093S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31093SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>31093SA</t>
+          <t>31093SAX</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31093SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31093SAX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>31093SAX</t>
+          <t>31093SX</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31093SAX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,31093SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>31093SX</t>
+          <t>3160S</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,31093SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3160S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3160S</t>
+          <t>3163S</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3160S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3163S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3163S</t>
+          <t>3163SA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3163S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3163SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>3163SA</t>
+          <t>3163SB</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3163SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3163SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3163SB</t>
+          <t>3168S</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3163SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3168S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4836,12 +4836,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3168S</t>
+          <t>3168SA</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3168S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3168SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4871,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3168SA</t>
+          <t>3168SC</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3168SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3168SC,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3168SC</t>
+          <t>3168SD</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3168SC,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3168SD,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4941,12 +4941,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>3168SD</t>
+          <t>3168SE</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3168SD,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3168SE,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -4976,12 +4976,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>3168SE</t>
+          <t>3169S</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3168SE,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3169S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3169S</t>
+          <t>3169SA</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3169S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3169SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5046,12 +5046,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3169SA</t>
+          <t>3171S</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3169SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3171S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3171S</t>
+          <t>3181S</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3171S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3181S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>3181S</t>
+          <t>3181SA</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3181S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3181SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5151,12 +5151,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3181SA</t>
+          <t>3182S</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3181SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3182S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5186,12 +5186,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>3182S</t>
+          <t>3192SA</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3182S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3192SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>3192SA</t>
+          <t>3195S</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3192SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3195S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5256,12 +5256,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3195S</t>
+          <t>3195SA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3195S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3195SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5291,12 +5291,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>3195SA</t>
+          <t>3195SB</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3195SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3195SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>3195SB</t>
+          <t>3195SBX</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3195SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3195SBX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5361,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3195SBX</t>
+          <t>3195SC</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3195SBX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3195SC,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>3195SC</t>
+          <t>3195SX</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3195SC,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3195SX,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>3195SX</t>
+          <t>3202S</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3195SX,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3202S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>3202S</t>
+          <t>3202SA</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3202S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3202SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3202SA</t>
+          <t>33235S</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3202SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,33235S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>33235S</t>
+          <t>3344S</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,33235S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3344S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>3344S</t>
+          <t>3349S</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3344S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3349S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>3349S</t>
+          <t>3350S</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3349S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3350S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3350S</t>
+          <t>3351S</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3350S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3351S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5676,12 +5676,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>3351S</t>
+          <t>3356S</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3351S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3356S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5711,12 +5711,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3356S</t>
+          <t>3358S</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3356S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3358S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>3358S</t>
+          <t>3358SA</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3358S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3358SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5781,12 +5781,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>3358SA</t>
+          <t>3359S</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3358SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3359S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5816,12 +5816,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>3359S</t>
+          <t>3359SB</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3359S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3359SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3359SB</t>
+          <t>3359SC</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3359SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3359SC,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>3359SC</t>
+          <t>3361S</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3359SC,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3361S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>3361S</t>
+          <t>3365SA</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3361S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3365SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3365SA</t>
+          <t>3370S</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3365SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3370S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5991,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>3370S</t>
+          <t>3370SA</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3370S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3370SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6026,12 +6026,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>3370SA</t>
+          <t>3372S</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3370SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3372S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>3372S</t>
+          <t>3373S</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3372S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3373S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>3373S</t>
+          <t>3374S</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3373S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3374S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6131,12 +6131,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>3374S</t>
+          <t>3374SA</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3374S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3374SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3374SA</t>
+          <t>3375S</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3374SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3375S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>3375S</t>
+          <t>3375SA</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3375S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3375SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6236,12 +6236,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>3375SA</t>
+          <t>3376S</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3375SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3376S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>3376S</t>
+          <t>3376SA</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3376S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3376SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3376SA</t>
+          <t>3376SB</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3376SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3376SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6341,12 +6341,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3376SB</t>
+          <t>3377S</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3376SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3377S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3377S</t>
+          <t>3377SA</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3377S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3377SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6411,12 +6411,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>3377SA</t>
+          <t>3378S</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3377SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3378S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3378S</t>
+          <t>3378SA</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3378S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3378SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3378SA</t>
+          <t>3380S</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3378SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3380S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6516,12 +6516,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3380S</t>
+          <t>3380SA</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3380S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3380SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6551,12 +6551,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>3380SA</t>
+          <t>3381A</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3380SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3381A,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6586,12 +6586,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3381A</t>
+          <t>3381AS</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3381A,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3381AS,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6621,12 +6621,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>3381AS</t>
+          <t>3383S</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3381AS,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3383S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6656,12 +6656,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>3383S</t>
+          <t>3383SB</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3383S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3383SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>3383SB</t>
+          <t>3384S</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3383SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3384S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6726,12 +6726,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3384S</t>
+          <t>3385S</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3384S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3385S,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6761,12 +6761,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>3385S</t>
+          <t>3385SA</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3385S,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3385SA,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6796,12 +6796,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>3385SA</t>
+          <t>3385SB</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3385SA,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3385SB,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6831,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3385SB</t>
+          <t>3385SC</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/melling,3385SB,timing+chain+&amp;+component+kit,5756</t>
+          <t>https://www.rockauto.com/en/parts/melling,3385SC,timing+chain+&amp;+component+kit,5756</t>
         </is>
       </c>
     </row>

--- a/03.crawler/01.RockAuto/file/1.part_number/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/1.part_number/crawler_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -44,12 +47,12 @@
     <t>Url</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Type Code</t>
   </si>
   <si>
+    <t>Engine</t>
+  </si>
+  <si>
     <t>Timing Chain &amp; Component Kit</t>
   </si>
   <si>
@@ -60,9 +63,6 @@
   </si>
   <si>
     <t>https://www.rockauto.com/en/parts/melling,30250S,timing+chain+&amp;+component+kit,5756</t>
-  </si>
-  <si>
-    <t>Engine</t>
   </si>
   <si>
     <t>5756</t>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD521"/>
+      <selection activeCell="A12" sqref="$A12:$XFD544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1178,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1224,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1247,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1270,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1293,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1316,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1362,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
